--- a/data/dataRecord/流延物料单.xlsx
+++ b/data/dataRecord/流延物料单.xlsx
@@ -1,72 +1,168 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\项目\紫江集团\紫花企业\设计文档\通讯协议\触摸屏\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10350"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="23895" windowHeight="10290"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
   <si>
     <t>物料代码</t>
   </si>
   <si>
-    <t>物料名称</t>
+    <t>物料批次号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>料仓号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已投料数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一号料仓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二号料仓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三号料仓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四号料仓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五号料仓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>六号料仓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>七号料仓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产批次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>线长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配方号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计开工时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计完工时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>余料数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>流延工序物料单</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>物料批次号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>料仓号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已投料数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一号料仓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>二号料仓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三号料仓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>四号料仓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>五号料仓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>六号料仓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>七号料仓</t>
+    <t>AS-001-001-1(12)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1804301(7)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FM56-17-1(9)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张路人甲(8)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-4-30 13:30(16)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.1.02.003(11)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>23000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(5)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3000(5)</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -74,39 +170,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>产品编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产批次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工单编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效料仓数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>线长</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责人:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>配方号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预计开工时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预计完工时间</t>
+    <t>六号中试线(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际开工时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际完工时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -114,7 +186,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +224,24 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -161,7 +251,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -230,13 +320,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -246,8 +345,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -255,12 +366,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -268,6 +373,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -279,6 +390,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -545,180 +659,268 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.75" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="A1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1"/>
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="5"/>
+      <c r="E14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:F1"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
